--- a/ig/ch-elm/observations-summary.xlsx
+++ b/ig/ch-elm/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Profile</t>
   </si>
@@ -45,6 +45,39 @@
   </si>
   <si>
     <t>Method</t>
+  </si>
+  <si>
+    <t>ch-elm-observation-results-laboratory</t>
+  </si>
+  <si>
+    <t>CH ELM Observation Results: Laboratory</t>
+  </si>
+  <si>
+    <t>null#laboratory</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-laboratory-observation (extensible)</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>ch-elm-observation-results-laboratory-strict</t>
+  </si>
+  <si>
+    <t>CH ELM Observation Results: Laboratory (strict)</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-laboratory-observation (required)</t>
   </si>
 </sst>
 </file>
@@ -178,7 +211,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -219,6 +252,76 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/ch-elm/observations-summary.xlsx
+++ b/ig/ch-elm/observations-summary.xlsx
@@ -65,7 +65,7 @@
     <t>dateTime</t>
   </si>
   <si>
-    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
+    <t>CodeableConcept, string, Range, Ratio, time, dateTime, Period, Quantity</t>
   </si>
   <si>
     <t>optional</t>

--- a/ig/ch-elm/observations-summary.xlsx
+++ b/ig/ch-elm/observations-summary.xlsx
@@ -65,7 +65,7 @@
     <t>dateTime</t>
   </si>
   <si>
-    <t>CodeableConcept, string, Range, Ratio, time, dateTime, Period, Quantity</t>
+    <t>string, Quantity, CodeableConcept, Range, Ratio, time, dateTime, Period</t>
   </si>
   <si>
     <t>optional</t>

--- a/ig/ch-elm/observations-summary.xlsx
+++ b/ig/ch-elm/observations-summary.xlsx
@@ -65,7 +65,7 @@
     <t>dateTime</t>
   </si>
   <si>
-    <t>string, Quantity, CodeableConcept, Range, Ratio, time, dateTime, Period</t>
+    <t>string, Ratio, Quantity, CodeableConcept, boolean, Range, time, dateTime, Period</t>
   </si>
   <si>
     <t>optional</t>

--- a/ig/ch-elm/observations-summary.xlsx
+++ b/ig/ch-elm/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
   <si>
     <t>Profile</t>
   </si>
@@ -59,25 +59,70 @@
     <t/>
   </si>
   <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-laboratory-observation-complete (extensible)</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>string, Ratio, Quantity, CodeableConcept, boolean, Range, time, dateTime, Period</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>ch-elm-observation-results-laboratory-genotyping</t>
+  </si>
+  <si>
+    <t>CH ELM Observation Results for Genotyping</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-laboratory-observation-geno (extensible)</t>
+  </si>
+  <si>
+    <t>ch-elm-observation-results-laboratory-genotyping-strict</t>
+  </si>
+  <si>
+    <t>CH ELM Observation Results for Genotyping (strict)</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-laboratory-observation-geno (required)</t>
+  </si>
+  <si>
+    <t>ch-elm-observation-results-laboratory-microbiolgy-strict</t>
+  </si>
+  <si>
+    <t>CH ELM Observation Results for Microbiology studies (set) strict</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-laboratory-observation (required)</t>
+  </si>
+  <si>
+    <t>ch-elm-observation-results-laboratory-microbiology</t>
+  </si>
+  <si>
+    <t>CH ELM Observation Results for Microbiology studies (set)</t>
+  </si>
+  <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-laboratory-observation (extensible)</t>
   </si>
   <si>
-    <t>dateTime</t>
-  </si>
-  <si>
-    <t>string, Ratio, Quantity, CodeableConcept, boolean, Range, time, dateTime, Period</t>
-  </si>
-  <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>ch-elm-observation-results-laboratory-strict</t>
-  </si>
-  <si>
-    <t>CH ELM Observation Results: Laboratory (strict)</t>
-  </si>
-  <si>
-    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-laboratory-observation (required)</t>
+    <t>ch-elm-observation-results-laboratory-susceptibility</t>
+  </si>
+  <si>
+    <t>CH ELM Observation Results for Microbial susceptibility tests</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-laboratory-observation-susc (extensible)</t>
+  </si>
+  <si>
+    <t>ch-elm-observation-results-laboratory-susceptibility-strict</t>
+  </si>
+  <si>
+    <t>CH ELM Observation Results for Microbial susceptibility tests (strict)</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-laboratory-observation-susc (required)</t>
   </si>
 </sst>
 </file>
@@ -211,7 +256,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -322,6 +367,181 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ig/ch-elm/observations-summary.xlsx
+++ b/ig/ch-elm/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="48">
   <si>
     <t>Profile</t>
   </si>
@@ -47,28 +47,61 @@
     <t>Method</t>
   </si>
   <si>
+    <t>ch-elm-observation-results-hiv-recency-strict</t>
+  </si>
+  <si>
+    <t>CH ELM Observation Results for HIV Recency Testing (strict)</t>
+  </si>
+  <si>
+    <t>null#laboratory</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>LOINC#77685-6</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>string, Ratio, Quantity, CodeableConcept, boolean, Range, time, dateTime, Period</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>SNOMED CT#118040000</t>
+  </si>
+  <si>
+    <t>Quantity, string, boolean, Range, Ratio, time, dateTime, Period, CodeableConcept</t>
+  </si>
+  <si>
+    <t>SNOMED CT#118044009</t>
+  </si>
+  <si>
+    <t>SNOMED CT#118052007</t>
+  </si>
+  <si>
+    <t>SNOMED CT#117749009</t>
+  </si>
+  <si>
+    <t>SNOMED CT#118047002</t>
+  </si>
+  <si>
+    <t>SNOMED CT#118062000</t>
+  </si>
+  <si>
+    <t>SNOMED CT#118067006</t>
+  </si>
+  <si>
     <t>ch-elm-observation-results-laboratory</t>
   </si>
   <si>
     <t>CH ELM Observation Results: Laboratory</t>
   </si>
   <si>
-    <t>null#laboratory</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>http://fhir.ch/ig/ch-elm/ValueSet/ch-elm-results-laboratory-observation-complete (extensible)</t>
-  </si>
-  <si>
-    <t>dateTime</t>
-  </si>
-  <si>
-    <t>string, Ratio, Quantity, CodeableConcept, boolean, Range, time, dateTime, Period</t>
-  </si>
-  <si>
-    <t>optional</t>
   </si>
   <si>
     <t>ch-elm-observation-results-laboratory-genotyping</t>
@@ -256,7 +289,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -311,10 +344,10 @@
         <v>14</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s" s="2">
         <v>16</v>
@@ -334,28 +367,28 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="F3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>17</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>18</v>
@@ -369,28 +402,28 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>18</v>
@@ -404,28 +437,28 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>18</v>
@@ -439,28 +472,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>18</v>
@@ -474,28 +507,28 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>18</v>
@@ -509,36 +542,316 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="C12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="C8" t="s" s="2">
+      <c r="G12" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="D8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G8" t="s" s="2">
+      <c r="D13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="H8" t="s" s="2">
+      <c r="H13" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I8" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K8" t="s" s="2">
+      <c r="I13" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>14</v>
       </c>
     </row>
